--- a/Report Log 2020.xlsx
+++ b/Report Log 2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4132" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4164" uniqueCount="959">
   <si>
     <t>2020-02-21</t>
   </si>
@@ -1157,9 +1157,6 @@
   </si>
   <si>
     <t>2020-02-03</t>
-  </si>
-  <si>
-    <t>30109769</t>
   </si>
   <si>
     <t>Ahmed</t>
@@ -2885,6 +2882,48 @@
   </si>
   <si>
     <t>STUDENT_NUMBER</t>
+  </si>
+  <si>
+    <t>301110853</t>
+  </si>
+  <si>
+    <t>Cleaned the systems in the room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3-32 </t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>printer near elevator out of paper</t>
+  </si>
+  <si>
+    <t>printer near A3-52 out of paper</t>
+  </si>
+  <si>
+    <t>18 computers not getting network connection</t>
+  </si>
+  <si>
+    <t>switch reset</t>
+  </si>
+  <si>
+    <t>Internet icon shows the globe</t>
+  </si>
+  <si>
+    <t>Ralph and Shaniquo</t>
+  </si>
+  <si>
+    <t>computer: PR-B317-27</t>
+  </si>
+  <si>
+    <t>Internet icon shows the globe. Error message: problem with driver for ethernet adapter</t>
+  </si>
+  <si>
+    <t>computer: PR-B317-10</t>
+  </si>
+  <si>
+    <t>computer: PR-B317-9</t>
   </si>
 </sst>
 </file>
@@ -2894,7 +2933,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2909,6 +2948,16 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2931,7 +2980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2948,29 +2997,65 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3364,25 +3449,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B1" t="s">
         <v>855</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>856</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>857</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>858</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>859</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>860</v>
-      </c>
-      <c r="G1" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75">
@@ -3568,7 +3653,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>77</v>
@@ -3703,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>105</v>
@@ -3726,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>105</v>
@@ -3982,13 +4067,13 @@
         <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>309</v>
@@ -4094,10 +4179,10 @@
         <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>163</v>
@@ -4186,7 +4271,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>105</v>
@@ -4209,7 +4294,7 @@
         <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>105</v>
@@ -5054,7 +5139,7 @@
         <v>268</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>105</v>
@@ -5063,7 +5148,7 @@
         <v>184</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>8</v>
@@ -5192,10 +5277,10 @@
         <v>185</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>254</v>
@@ -5215,10 +5300,10 @@
         <v>185</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>254</v>
@@ -5238,10 +5323,10 @@
         <v>187</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>361</v>
@@ -5330,10 +5415,10 @@
         <v>187</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>254</v>
@@ -5353,13 +5438,13 @@
         <v>187</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>8</v>
@@ -5373,13 +5458,13 @@
         <v>187</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>8</v>
@@ -5390,7 +5475,7 @@
     </row>
     <row r="90" spans="1:7" ht="12.75">
       <c r="A90" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>33</v>
@@ -5413,7 +5498,7 @@
     </row>
     <row r="91" spans="1:7" ht="12.75">
       <c r="A91" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>97</v>
@@ -5425,7 +5510,7 @@
         <v>6</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>8</v>
@@ -5436,7 +5521,7 @@
     </row>
     <row r="92" spans="1:7" ht="12.75">
       <c r="A92" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>4</v>
@@ -5448,7 +5533,7 @@
         <v>6</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>8</v>
@@ -5459,7 +5544,7 @@
     </row>
     <row r="93" spans="1:7" ht="12.75">
       <c r="A93" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>26</v>
@@ -5468,10 +5553,10 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>8</v>
@@ -5482,19 +5567,19 @@
     </row>
     <row r="94" spans="1:7" ht="12.75">
       <c r="A94" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>8</v>
@@ -5505,19 +5590,19 @@
     </row>
     <row r="95" spans="1:7" ht="12.75">
       <c r="A95" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>8</v>
@@ -5528,7 +5613,7 @@
     </row>
     <row r="96" spans="1:7" ht="12.75">
       <c r="A96" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>20</v>
@@ -5537,10 +5622,10 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>8</v>
@@ -5551,19 +5636,19 @@
     </row>
     <row r="97" spans="1:7" ht="12.75">
       <c r="A97" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>8</v>
@@ -5583,16 +5668,16 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="12.75">
@@ -5606,16 +5691,16 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="12.75">
@@ -5629,16 +5714,16 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E100" s="6" t="s">
-        <v>428</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="12.75">
@@ -5652,7 +5737,7 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>167</v>
@@ -5675,7 +5760,7 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>167</v>
@@ -5698,10 +5783,10 @@
         <v>10</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>8</v>
@@ -5788,10 +5873,10 @@
         <v>215</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>8</v>
@@ -5811,7 +5896,7 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>6</v>
@@ -5820,7 +5905,7 @@
         <v>8</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="12.75">
@@ -5831,13 +5916,13 @@
         <v>26</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>8</v>
@@ -5854,10 +5939,10 @@
         <v>26</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>6</v>
@@ -5880,7 +5965,7 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>6</v>
@@ -5894,7 +5979,7 @@
     </row>
     <row r="112" spans="1:7" ht="12.75">
       <c r="A112" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>20</v>
@@ -5906,7 +5991,7 @@
         <v>6</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>8</v>
@@ -5917,7 +6002,7 @@
     </row>
     <row r="113" spans="1:7" ht="12.75">
       <c r="A113" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>26</v>
@@ -5929,7 +6014,7 @@
         <v>44</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>8</v>
@@ -5940,7 +6025,7 @@
     </row>
     <row r="114" spans="1:7" ht="12.75">
       <c r="A114" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>2</v>
@@ -5963,30 +6048,30 @@
     </row>
     <row r="115" spans="1:7" ht="25.5">
       <c r="A115" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="12.75">
       <c r="A116" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>53</v>
@@ -5995,10 +6080,10 @@
         <v>303</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>8</v>
@@ -6009,7 +6094,7 @@
     </row>
     <row r="117" spans="1:7" ht="12.75">
       <c r="A117" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>53</v>
@@ -6021,7 +6106,7 @@
         <v>241</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>8</v>
@@ -6032,7 +6117,7 @@
     </row>
     <row r="118" spans="1:7" ht="12.75">
       <c r="A118" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>115</v>
@@ -6041,10 +6126,10 @@
         <v>230</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>8</v>
@@ -6055,19 +6140,19 @@
     </row>
     <row r="119" spans="1:7" ht="12.75">
       <c r="A119" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>8</v>
@@ -6078,19 +6163,19 @@
     </row>
     <row r="120" spans="1:7" ht="12.75">
       <c r="A120" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>8</v>
@@ -6107,13 +6192,13 @@
         <v>26</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>8</v>
@@ -6130,10 +6215,10 @@
         <v>2</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>6</v>
@@ -6156,10 +6241,10 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>8</v>
@@ -6176,13 +6261,13 @@
         <v>2</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>8</v>
@@ -6199,13 +6284,13 @@
         <v>53</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>8</v>
@@ -6222,13 +6307,13 @@
         <v>97</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>8</v>
@@ -6251,7 +6336,7 @@
         <v>274</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>8</v>
@@ -6291,7 +6376,7 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>8</v>
@@ -6308,13 +6393,13 @@
         <v>115</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>8</v>
@@ -6331,13 +6416,13 @@
         <v>115</v>
       </c>
       <c r="C131" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>8</v>
@@ -6368,16 +6453,16 @@
     </row>
     <row r="133" spans="1:7" ht="12.75">
       <c r="A133" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>22</v>
@@ -6391,19 +6476,19 @@
     </row>
     <row r="134" spans="1:7" ht="12.75">
       <c r="A134" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>8</v>
@@ -6414,19 +6499,19 @@
     </row>
     <row r="135" spans="1:7" ht="12.75">
       <c r="A135" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C135" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>8</v>
@@ -6437,19 +6522,19 @@
     </row>
     <row r="136" spans="1:7" ht="12.75">
       <c r="A136" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>556</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>8</v>
@@ -6460,19 +6545,19 @@
     </row>
     <row r="137" spans="1:7" ht="12.75">
       <c r="A137" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>556</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>8</v>
@@ -6483,7 +6568,7 @@
     </row>
     <row r="138" spans="1:7" ht="12.75">
       <c r="A138" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>26</v>
@@ -6492,10 +6577,10 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>8</v>
@@ -6506,7 +6591,7 @@
     </row>
     <row r="139" spans="1:7" ht="12.75">
       <c r="A139" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>4</v>
@@ -6515,10 +6600,10 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>8</v>
@@ -6529,30 +6614,30 @@
     </row>
     <row r="140" spans="1:7" ht="12.75">
       <c r="A140" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" s="3" t="s">
         <v>575</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="12.75">
       <c r="A141" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>20</v>
@@ -6564,7 +6649,7 @@
         <v>40</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>8</v>
@@ -6575,7 +6660,7 @@
     </row>
     <row r="142" spans="1:7" ht="12.75">
       <c r="A142" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>26</v>
@@ -6587,7 +6672,7 @@
         <v>40</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>8</v>
@@ -6598,7 +6683,7 @@
     </row>
     <row r="143" spans="1:7" ht="12.75">
       <c r="A143" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>53</v>
@@ -6621,13 +6706,13 @@
     </row>
     <row r="144" spans="1:7" ht="12.75">
       <c r="A144" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>59</v>
@@ -6644,7 +6729,7 @@
     </row>
     <row r="145" spans="1:7" ht="12.75">
       <c r="A145" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>20</v>
@@ -6667,7 +6752,7 @@
     </row>
     <row r="146" spans="1:7" ht="12.75">
       <c r="A146" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>53</v>
@@ -6690,13 +6775,13 @@
     </row>
     <row r="147" spans="1:7" ht="12.75">
       <c r="A147" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>59</v>
@@ -6713,16 +6798,16 @@
     </row>
     <row r="148" spans="1:7" ht="12.75">
       <c r="A148" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>67</v>
@@ -6736,19 +6821,19 @@
     </row>
     <row r="149" spans="1:7" ht="12.75">
       <c r="A149" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>8</v>
@@ -6759,10 +6844,10 @@
     </row>
     <row r="150" spans="1:7" ht="12.75">
       <c r="A150" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>64</v>
@@ -6782,7 +6867,7 @@
     </row>
     <row r="151" spans="1:7" ht="12.75">
       <c r="A151" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>20</v>
@@ -6791,7 +6876,7 @@
         <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>8</v>
@@ -6802,16 +6887,16 @@
     </row>
     <row r="152" spans="1:7" ht="12.75">
       <c r="A152" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C152" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>6</v>
@@ -6825,16 +6910,16 @@
     </row>
     <row r="153" spans="1:7" ht="12.75">
       <c r="A153" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C153" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>6</v>
@@ -6848,16 +6933,16 @@
     </row>
     <row r="154" spans="1:7" ht="12.75">
       <c r="A154" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>6</v>
@@ -6871,19 +6956,19 @@
     </row>
     <row r="155" spans="1:7" ht="12.75">
       <c r="A155" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C155" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>8</v>
@@ -6894,16 +6979,16 @@
     </row>
     <row r="156" spans="1:7" ht="12.75">
       <c r="A156" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>208</v>
@@ -6912,12 +6997,12 @@
         <v>8</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="12.75">
       <c r="A157" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>97</v>
@@ -6926,7 +7011,7 @@
         <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>8</v>
@@ -6937,13 +7022,13 @@
     </row>
     <row r="158" spans="1:7" ht="12.75">
       <c r="A158" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>6</v>
@@ -6960,7 +7045,7 @@
     </row>
     <row r="159" spans="1:7" ht="12.75">
       <c r="A159" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>101</v>
@@ -6969,10 +7054,10 @@
         <v>10</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>8</v>
@@ -6983,7 +7068,7 @@
     </row>
     <row r="160" spans="1:7" ht="12.75">
       <c r="A160" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>26</v>
@@ -6992,10 +7077,10 @@
         <v>10</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>8</v>
@@ -7006,7 +7091,7 @@
     </row>
     <row r="161" spans="1:7" ht="12.75">
       <c r="A161" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>4</v>
@@ -7015,10 +7100,10 @@
         <v>10</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>8</v>
@@ -7029,16 +7114,16 @@
     </row>
     <row r="162" spans="1:7" ht="12.75">
       <c r="A162" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>6</v>
@@ -7052,65 +7137,65 @@
     </row>
     <row r="163" spans="1:7" ht="12.75">
       <c r="A163" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="F163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" s="3" t="s">
         <v>644</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="12.75">
       <c r="A164" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="F164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="3" t="s">
         <v>644</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="12.75">
       <c r="A165" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>8</v>
@@ -7121,7 +7206,7 @@
     </row>
     <row r="166" spans="1:7" ht="12.75">
       <c r="A166" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>120</v>
@@ -7141,7 +7226,7 @@
     </row>
     <row r="167" spans="1:7" ht="12.75">
       <c r="A167" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>97</v>
@@ -7161,19 +7246,19 @@
     </row>
     <row r="168" spans="1:7" ht="12.75">
       <c r="A168" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>8</v>
@@ -7184,7 +7269,7 @@
     </row>
     <row r="169" spans="1:7" ht="12.75">
       <c r="A169" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>101</v>
@@ -7193,7 +7278,7 @@
         <v>22</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>11</v>
@@ -7207,7 +7292,7 @@
     </row>
     <row r="170" spans="1:7" ht="12.75">
       <c r="A170" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>20</v>
@@ -7219,7 +7304,7 @@
         <v>6</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>8</v>
@@ -7230,13 +7315,13 @@
     </row>
     <row r="171" spans="1:7" ht="12.75">
       <c r="A171" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>320</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>6</v>
@@ -7250,7 +7335,7 @@
     </row>
     <row r="172" spans="1:7" ht="12.75">
       <c r="A172" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>4</v>
@@ -7259,7 +7344,7 @@
         <v>22</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>11</v>
@@ -7273,19 +7358,19 @@
     </row>
     <row r="173" spans="1:7" ht="12.75">
       <c r="A173" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C173" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="E173" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>8</v>
@@ -7296,7 +7381,7 @@
     </row>
     <row r="174" spans="1:7" ht="12.75">
       <c r="A174" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>115</v>
@@ -7308,7 +7393,7 @@
         <v>274</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>8</v>
@@ -7319,7 +7404,7 @@
     </row>
     <row r="175" spans="1:7" ht="12.75">
       <c r="A175" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>115</v>
@@ -7331,7 +7416,7 @@
         <v>274</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>8</v>
@@ -7342,7 +7427,7 @@
     </row>
     <row r="176" spans="1:7" ht="12.75">
       <c r="A176" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>115</v>
@@ -7354,7 +7439,7 @@
         <v>274</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>8</v>
@@ -7365,16 +7450,16 @@
     </row>
     <row r="177" spans="1:7" ht="12.75">
       <c r="A177" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C177" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>671</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>6</v>
@@ -7388,7 +7473,7 @@
     </row>
     <row r="178" spans="1:7" ht="12.75">
       <c r="A178" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>53</v>
@@ -7408,19 +7493,19 @@
     </row>
     <row r="179" spans="1:7" ht="12.75">
       <c r="A179" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>8</v>
@@ -7431,19 +7516,19 @@
     </row>
     <row r="180" spans="1:7" ht="12.75">
       <c r="A180" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>8</v>
@@ -7454,19 +7539,19 @@
     </row>
     <row r="181" spans="1:7" ht="12.75">
       <c r="A181" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>8</v>
@@ -7477,7 +7562,7 @@
     </row>
     <row r="182" spans="1:7" ht="12.75">
       <c r="A182" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>4</v>
@@ -7486,7 +7571,7 @@
         <v>10</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>8</v>
@@ -7497,7 +7582,7 @@
     </row>
     <row r="183" spans="1:7" ht="12.75">
       <c r="A183" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>120</v>
@@ -7506,7 +7591,7 @@
         <v>10</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>8</v>
@@ -7517,19 +7602,19 @@
     </row>
     <row r="184" spans="1:7" ht="12.75">
       <c r="A184" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>8</v>
@@ -7540,7 +7625,7 @@
     </row>
     <row r="185" spans="1:7" ht="12.75">
       <c r="A185" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>323</v>
@@ -7560,7 +7645,7 @@
     </row>
     <row r="186" spans="1:7" ht="12.75">
       <c r="A186" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>20</v>
@@ -7583,19 +7668,19 @@
     </row>
     <row r="187" spans="1:7" ht="12.75">
       <c r="A187" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>320</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>8</v>
@@ -7606,19 +7691,19 @@
     </row>
     <row r="188" spans="1:7" ht="12.75">
       <c r="A188" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C188" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="E188" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>8</v>
@@ -7629,19 +7714,19 @@
     </row>
     <row r="189" spans="1:7" ht="12.75">
       <c r="A189" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C189" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="E189" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>8</v>
@@ -7652,19 +7737,19 @@
     </row>
     <row r="190" spans="1:7" ht="12.75">
       <c r="A190" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C190" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>8</v>
@@ -7675,19 +7760,19 @@
     </row>
     <row r="191" spans="1:7" ht="12.75">
       <c r="A191" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C191" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>8</v>
@@ -7698,16 +7783,16 @@
     </row>
     <row r="192" spans="1:7" ht="12.75">
       <c r="A192" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C192" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>30</v>
@@ -7721,19 +7806,19 @@
     </row>
     <row r="193" spans="1:7" ht="12.75">
       <c r="A193" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>8</v>
@@ -7744,19 +7829,19 @@
     </row>
     <row r="194" spans="1:7" ht="12.75">
       <c r="A194" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C194" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="E194" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>8</v>
@@ -7767,7 +7852,7 @@
     </row>
     <row r="195" spans="1:7" ht="12.75">
       <c r="A195" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>53</v>
@@ -7787,7 +7872,7 @@
     </row>
     <row r="196" spans="1:7" ht="12.75">
       <c r="A196" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>58</v>
@@ -7807,30 +7892,30 @@
     </row>
     <row r="197" spans="1:7" ht="12.75">
       <c r="A197" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C197" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>694</v>
-      </c>
       <c r="F197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="12.75">
       <c r="A198" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>105</v>
@@ -7839,7 +7924,7 @@
         <v>184</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>8</v>
@@ -7850,10 +7935,10 @@
     </row>
     <row r="199" spans="1:7" ht="12.75">
       <c r="A199" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>105</v>
@@ -7862,7 +7947,7 @@
         <v>184</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>8</v>
@@ -7873,19 +7958,19 @@
     </row>
     <row r="200" spans="1:7" ht="12.75">
       <c r="A200" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>8</v>
@@ -7896,19 +7981,19 @@
     </row>
     <row r="201" spans="1:7" ht="12.75">
       <c r="A201" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>8</v>
@@ -7919,19 +8004,19 @@
     </row>
     <row r="202" spans="1:7" ht="12.75">
       <c r="A202" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C202" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="E202" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>737</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>8</v>
@@ -7942,19 +8027,19 @@
     </row>
     <row r="203" spans="1:7" ht="12.75">
       <c r="A203" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C203" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>739</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>8</v>
@@ -7965,19 +8050,19 @@
     </row>
     <row r="204" spans="1:7" ht="12.75">
       <c r="A204" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="E204" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>8</v>
@@ -7988,42 +8073,42 @@
     </row>
     <row r="205" spans="1:7" ht="12.75">
       <c r="A205" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C205" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="E205" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="F205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G205" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="12.75">
       <c r="A206" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="E206" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>749</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>8</v>
@@ -8034,16 +8119,16 @@
     </row>
     <row r="207" spans="1:7" ht="12.75">
       <c r="A207" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>8</v>
@@ -8054,7 +8139,7 @@
     </row>
     <row r="208" spans="1:7" ht="12.75">
       <c r="A208" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>20</v>
@@ -8077,7 +8162,7 @@
     </row>
     <row r="209" spans="1:7" ht="12.75">
       <c r="A209" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>26</v>
@@ -8100,7 +8185,7 @@
     </row>
     <row r="210" spans="1:7" ht="12.75">
       <c r="A210" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>26</v>
@@ -8123,7 +8208,7 @@
     </row>
     <row r="211" spans="1:7" ht="12.75">
       <c r="A211" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>53</v>
@@ -8132,10 +8217,10 @@
         <v>22</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>8</v>
@@ -8146,19 +8231,19 @@
     </row>
     <row r="212" spans="1:7" ht="12.75">
       <c r="A212" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>8</v>
@@ -8169,19 +8254,19 @@
     </row>
     <row r="213" spans="1:7" ht="12.75">
       <c r="A213" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>320</v>
       </c>
       <c r="C213" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>8</v>
@@ -8192,53 +8277,53 @@
     </row>
     <row r="214" spans="1:7" ht="12.75">
       <c r="A214" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>320</v>
       </c>
       <c r="C214" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="F214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G214" s="3" t="s">
         <v>757</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G214" s="3" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="12.75">
       <c r="A215" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>320</v>
       </c>
       <c r="C215" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="F215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G215" s="3" t="s">
         <v>757</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G215" s="3" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="12.75">
       <c r="A216" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>26</v>
@@ -8247,7 +8332,7 @@
         <v>209</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>6</v>
@@ -8261,19 +8346,19 @@
     </row>
     <row r="217" spans="1:7" ht="12.75">
       <c r="A217" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C217" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="E217" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>8</v>
@@ -8284,7 +8369,7 @@
     </row>
     <row r="218" spans="1:7" ht="12.75">
       <c r="A218" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>2</v>
@@ -8296,7 +8381,7 @@
         <v>6</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>8</v>
@@ -8307,7 +8392,7 @@
     </row>
     <row r="219" spans="1:7" ht="12.75">
       <c r="A219" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>2</v>
@@ -8319,7 +8404,7 @@
         <v>6</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>8</v>
@@ -8330,16 +8415,16 @@
     </row>
     <row r="220" spans="1:7" ht="12.75">
       <c r="A220" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>57</v>
@@ -8353,19 +8438,19 @@
     </row>
     <row r="221" spans="1:7" ht="12.75">
       <c r="A221" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>320</v>
       </c>
       <c r="C221" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>766</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>8</v>
@@ -8376,42 +8461,42 @@
     </row>
     <row r="222" spans="1:7" ht="12.75">
       <c r="A222" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C222" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="E222" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="F222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G222" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G222" s="3" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="12.75">
       <c r="A223" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C223" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="E223" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>769</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>8</v>
@@ -8422,19 +8507,19 @@
     </row>
     <row r="224" spans="1:7" ht="12.75">
       <c r="A224" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D224" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>8</v>
@@ -8445,42 +8530,42 @@
     </row>
     <row r="225" spans="1:7" ht="12.75">
       <c r="A225" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>323</v>
       </c>
       <c r="C225" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="E225" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="F225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G225" s="3" t="s">
         <v>775</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="12.75">
       <c r="A226" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C226" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>8</v>
@@ -8491,19 +8576,19 @@
     </row>
     <row r="227" spans="1:7" ht="12.75">
       <c r="A227" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C227" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>780</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>8</v>
@@ -8514,19 +8599,19 @@
     </row>
     <row r="228" spans="1:7" ht="12.75">
       <c r="A228" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>320</v>
       </c>
       <c r="C228" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>782</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>8</v>
@@ -8537,42 +8622,42 @@
     </row>
     <row r="229" spans="1:7" ht="12.75">
       <c r="A229" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>320</v>
       </c>
       <c r="C229" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="D229" s="2" t="s">
-        <v>774</v>
-      </c>
       <c r="E229" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="12.75">
       <c r="A230" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C230" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="E230" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>8</v>
@@ -8583,19 +8668,19 @@
     </row>
     <row r="231" spans="1:7" ht="12.75">
       <c r="A231" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C231" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="E231" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>789</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>8</v>
@@ -8606,7 +8691,7 @@
     </row>
     <row r="232" spans="1:7" ht="12.75">
       <c r="A232" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>115</v>
@@ -8615,10 +8700,10 @@
         <v>230</v>
       </c>
       <c r="D232" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>791</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>8</v>
@@ -8629,19 +8714,19 @@
     </row>
     <row r="233" spans="1:7" ht="12.75">
       <c r="A233" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C233" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="E233" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>794</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>8</v>
@@ -8652,19 +8737,19 @@
     </row>
     <row r="234" spans="1:7" ht="12.75">
       <c r="A234" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C234" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>796</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>8</v>
@@ -8675,19 +8760,19 @@
     </row>
     <row r="235" spans="1:7" ht="12.75">
       <c r="A235" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>8</v>
@@ -8698,19 +8783,19 @@
     </row>
     <row r="236" spans="1:7" ht="12.75">
       <c r="A236" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C236" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>8</v>
@@ -8721,19 +8806,19 @@
     </row>
     <row r="237" spans="1:7" ht="12.75">
       <c r="A237" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>323</v>
       </c>
       <c r="C237" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>802</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>8</v>
@@ -8744,19 +8829,19 @@
     </row>
     <row r="238" spans="1:7" ht="12.75">
       <c r="A238" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C238" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="E238" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>805</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>8</v>
@@ -8767,13 +8852,13 @@
     </row>
     <row r="239" spans="1:7" ht="12.75">
       <c r="A239" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>6</v>
@@ -8787,19 +8872,19 @@
     </row>
     <row r="240" spans="1:7" ht="12.75">
       <c r="A240" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C240" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>8</v>
@@ -8810,7 +8895,7 @@
     </row>
     <row r="241" spans="1:7" ht="12.75">
       <c r="A241" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>97</v>
@@ -8819,10 +8904,10 @@
         <v>215</v>
       </c>
       <c r="D241" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>810</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>8</v>
@@ -8833,7 +8918,7 @@
     </row>
     <row r="242" spans="1:7" ht="12.75">
       <c r="A242" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>97</v>
@@ -8842,10 +8927,10 @@
         <v>215</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>8</v>
@@ -8856,42 +8941,42 @@
     </row>
     <row r="243" spans="1:7" ht="12.75">
       <c r="A243" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D243" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="E243" s="2" t="s">
+      <c r="F243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G243" s="3" t="s">
         <v>813</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G243" s="3" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="12.75">
       <c r="A244" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C244" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="E244" s="2" t="s">
         <v>816</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>817</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>8</v>
@@ -8902,19 +8987,19 @@
     </row>
     <row r="245" spans="1:7" ht="12.75">
       <c r="A245" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C245" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>818</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>819</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>8</v>
@@ -8925,19 +9010,19 @@
     </row>
     <row r="246" spans="1:7" ht="12.75">
       <c r="A246" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C246" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="E246" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>822</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>8</v>
@@ -8948,19 +9033,19 @@
     </row>
     <row r="247" spans="1:7" ht="12.75">
       <c r="A247" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>8</v>
@@ -8971,19 +9056,19 @@
     </row>
     <row r="248" spans="1:7" ht="12.75">
       <c r="A248" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>8</v>
@@ -8994,19 +9079,19 @@
     </row>
     <row r="249" spans="1:7" ht="12.75">
       <c r="A249" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C249" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>8</v>
@@ -9017,19 +9102,19 @@
     </row>
     <row r="250" spans="1:7" ht="12.75">
       <c r="A250" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>8</v>
@@ -9040,19 +9125,19 @@
     </row>
     <row r="251" spans="1:7" ht="12.75">
       <c r="A251" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>323</v>
       </c>
       <c r="C251" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="E251" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>8</v>
@@ -9063,19 +9148,19 @@
     </row>
     <row r="252" spans="1:7" ht="12.75">
       <c r="A252" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>323</v>
       </c>
       <c r="C252" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D252" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="E252" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>834</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>8</v>
@@ -9086,19 +9171,19 @@
     </row>
     <row r="253" spans="1:7" ht="12.75">
       <c r="A253" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C253" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="E253" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>837</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>8</v>
@@ -9109,42 +9194,42 @@
     </row>
     <row r="254" spans="1:7" ht="12.75">
       <c r="A254" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C254" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="E254" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="E254" s="2" t="s">
-        <v>840</v>
-      </c>
       <c r="F254" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="12.75">
       <c r="A255" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C255" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>8</v>
@@ -9155,42 +9240,42 @@
     </row>
     <row r="256" spans="1:7" ht="12.75">
       <c r="A256" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C256" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="D256" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>839</v>
-      </c>
       <c r="E256" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G256" s="3" t="s">
         <v>843</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G256" s="3" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="12.75">
       <c r="A257" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C257" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D257" s="2" t="s">
+      <c r="E257" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>847</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>8</v>
@@ -9201,19 +9286,19 @@
     </row>
     <row r="258" spans="1:7" ht="12.75">
       <c r="A258" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C258" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>850</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>8</v>
@@ -9224,19 +9309,19 @@
     </row>
     <row r="259" spans="1:7" ht="12.75">
       <c r="A259" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>8</v>
@@ -9247,19 +9332,19 @@
     </row>
     <row r="260" spans="1:7" ht="12.75">
       <c r="A260" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>8</v>
@@ -9270,19 +9355,19 @@
     </row>
     <row r="261" spans="1:7" ht="12.75">
       <c r="A261" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>8</v>
@@ -13303,12 +13388,12 @@
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A2:A27 A29:A1262">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13340,7 +13425,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13399,7 +13484,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13412,10 +13497,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -13426,40 +13511,40 @@
     <col min="5" max="5" width="43" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D1" t="s">
+        <v>939</v>
+      </c>
+      <c r="E1" t="s">
+        <v>858</v>
+      </c>
+      <c r="F1" t="s">
+        <v>940</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="I1" t="s">
         <v>943</v>
       </c>
-      <c r="D1" t="s">
-        <v>940</v>
-      </c>
-      <c r="E1" t="s">
-        <v>859</v>
-      </c>
-      <c r="F1" t="s">
-        <v>941</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>942</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>945</v>
-      </c>
-      <c r="I1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>109</v>
       </c>
@@ -13481,14 +13566,14 @@
       <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>149</v>
       </c>
@@ -13510,14 +13595,14 @@
       <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="12.75">
       <c r="A4" s="3" t="s">
         <v>109</v>
       </c>
@@ -13539,14 +13624,14 @@
       <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="12.75">
       <c r="A5" s="3" t="s">
         <v>109</v>
       </c>
@@ -13565,17 +13650,17 @@
       <c r="F5" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G5" s="9">
-        <v>43879</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="12.75">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -13597,14 +13682,14 @@
       <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="12.75">
       <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
@@ -13626,14 +13711,14 @@
       <c r="G7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="12.75">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -13655,14 +13740,14 @@
       <c r="G8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="12.75">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -13684,14 +13769,14 @@
       <c r="G9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="12.75">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -13713,14 +13798,14 @@
       <c r="G10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="12.75">
       <c r="A11" s="3" t="s">
         <v>101</v>
       </c>
@@ -13742,14 +13827,14 @@
       <c r="G11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="12.75">
       <c r="A12" s="3" t="s">
         <v>92</v>
       </c>
@@ -13771,14 +13856,14 @@
       <c r="G12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="12.75">
       <c r="A13" s="3" t="s">
         <v>92</v>
       </c>
@@ -13800,14 +13885,14 @@
       <c r="G13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="12.75">
       <c r="A14" s="3" t="s">
         <v>109</v>
       </c>
@@ -13826,17 +13911,15 @@
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:9" ht="12.75">
       <c r="A15" s="3" t="s">
         <v>109</v>
       </c>
@@ -13858,14 +13941,14 @@
       <c r="G15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="12.75">
       <c r="A16" s="3" t="s">
         <v>109</v>
       </c>
@@ -13887,14 +13970,14 @@
       <c r="G16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="12.75">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -13905,10 +13988,10 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>309</v>
@@ -13916,14 +13999,14 @@
       <c r="G17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="12.75">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -13931,28 +14014,28 @@
         <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="12.75">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -13960,13 +14043,13 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>309</v>
@@ -13974,14 +14057,14 @@
       <c r="G19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="12.75">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -13989,13 +14072,13 @@
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>309</v>
@@ -14003,14 +14086,14 @@
       <c r="G20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="12.75">
       <c r="A21" s="3" t="s">
         <v>101</v>
       </c>
@@ -14021,19 +14104,19 @@
         <v>286</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="9">
-        <v>43862</v>
-      </c>
-      <c r="H21" s="12">
-        <v>301110853</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="G21" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12.75">
       <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
@@ -14044,10 +14127,10 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>309</v>
@@ -14055,14 +14138,14 @@
       <c r="G22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="12.75">
       <c r="A23" s="3" t="s">
         <v>97</v>
       </c>
@@ -14073,7 +14156,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>6</v>
@@ -14081,17 +14164,17 @@
       <c r="F23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="10">
-        <v>43859</v>
-      </c>
-      <c r="H23" s="13" t="s">
+      <c r="G23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:9" ht="12.75">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -14102,7 +14185,7 @@
         <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>6</v>
@@ -14113,14 +14196,14 @@
       <c r="G24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="12.75">
       <c r="A25" s="3" t="s">
         <v>109</v>
       </c>
@@ -14131,7 +14214,7 @@
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>6</v>
@@ -14139,28 +14222,28 @@
       <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>424</v>
+      <c r="H25" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12.75">
       <c r="A26" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>268</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>6</v>
@@ -14168,28 +14251,28 @@
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>424</v>
+      <c r="G26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12.75">
       <c r="A27" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>268</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>6</v>
@@ -14200,57 +14283,57 @@
       <c r="G27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" ht="12.75">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>320</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>6</v>
+        <v>433</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>8</v>
+        <v>309</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="12.75">
       <c r="A29" s="3" t="s">
-        <v>320</v>
+        <v>18</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>187</v>
+        <v>434</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>434</v>
+        <v>6</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>309</v>
@@ -14258,19 +14341,19 @@
       <c r="G29" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="12.75">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>435</v>
+        <v>127</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
@@ -14279,65 +14362,65 @@
         <v>436</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>6</v>
+        <v>437</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>309</v>
+        <v>8</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="12.75">
       <c r="A31" s="3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>8</v>
+        <v>309</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" ht="12.75">
       <c r="A32" s="3" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>127</v>
+        <v>434</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>309</v>
@@ -14345,86 +14428,86 @@
       <c r="G32" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" ht="12.75">
       <c r="A33" s="3" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>435</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>309</v>
+        <v>8</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.75">
       <c r="A34" s="3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>8</v>
+        <v>309</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.75">
       <c r="A35" s="3" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>309</v>
@@ -14432,16 +14515,16 @@
       <c r="G35" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" ht="12.75">
       <c r="A36" s="3" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>31</v>
@@ -14450,25 +14533,25 @@
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>309</v>
+        <v>8</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" ht="12.75">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -14479,97 +14562,97 @@
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>456</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>8</v>
+        <v>309</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" ht="12.75">
       <c r="A38" s="3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>31</v>
+        <v>482</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>309</v>
+        <v>8</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" ht="12.75">
       <c r="A39" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>6</v>
+        <v>491</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>492</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>8</v>
+        <v>309</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" ht="12.75">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>493</v>
+        <v>500</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>309</v>
@@ -14577,25 +14660,25 @@
       <c r="G40" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" ht="12.75">
       <c r="A41" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>6</v>
@@ -14606,28 +14689,28 @@
       <c r="G41" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" ht="12.75">
       <c r="A42" s="3" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>6</v>
+        <v>515</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>309</v>
@@ -14635,28 +14718,28 @@
       <c r="G42" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" ht="12.75">
       <c r="A43" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>309</v>
@@ -14664,28 +14747,28 @@
       <c r="G43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" ht="12.75">
       <c r="A44" s="3" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>309</v>
@@ -14693,28 +14776,28 @@
       <c r="G44" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" ht="12.75">
       <c r="A45" s="3" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>309</v>
@@ -14722,71 +14805,42 @@
       <c r="G45" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" ht="12.75">
       <c r="A46" s="3" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>536</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>6</v>
+        <v>539</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="H46" s="11"/>
       <c r="I46" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="12.75">
+      <c r="A47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14801,8 +14855,8 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14822,13 +14876,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>309</v>
@@ -14842,16 +14896,16 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>309</v>
@@ -14868,13 +14922,13 @@
         <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>309</v>
@@ -14891,7 +14945,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -14911,16 +14965,16 @@
         <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>309</v>
@@ -14934,16 +14988,16 @@
         <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>309</v>
@@ -14957,16 +15011,16 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>309</v>
@@ -14980,16 +15034,16 @@
         <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>309</v>
@@ -15006,13 +15060,13 @@
         <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>309</v>
@@ -15027,7 +15081,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A10">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15058,25 +15112,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B1" t="s">
         <v>855</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>856</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>857</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>858</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>859</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>860</v>
-      </c>
-      <c r="G1" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75">
@@ -15116,7 +15170,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -15176,13 +15230,13 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -15222,13 +15276,13 @@
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
@@ -15245,7 +15299,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>48</v>
@@ -15268,7 +15322,7 @@
         <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
@@ -15291,7 +15345,7 @@
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>68</v>
@@ -15360,13 +15414,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>85</v>
@@ -15383,13 +15437,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>85</v>
@@ -15406,13 +15460,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>85</v>
@@ -15504,7 +15558,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>15</v>
@@ -15527,7 +15581,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
@@ -15550,7 +15604,7 @@
         <v>119</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>121</v>
@@ -15685,13 +15739,13 @@
         <v>149</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>309</v>
@@ -15820,13 +15874,13 @@
         <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>6</v>
@@ -16004,13 +16058,13 @@
         <v>133</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>75</v>
@@ -16027,13 +16081,13 @@
         <v>133</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>75</v>
@@ -16418,10 +16472,10 @@
         <v>128</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>254</v>
@@ -16441,10 +16495,10 @@
         <v>256</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>260</v>
@@ -16740,7 +16794,7 @@
         <v>225</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>317</v>
@@ -16763,7 +16817,7 @@
         <v>225</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>317</v>
@@ -16772,7 +16826,7 @@
         <v>318</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>8</v>
@@ -17085,10 +17139,10 @@
         <v>155</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>254</v>
@@ -17108,16 +17162,16 @@
         <v>155</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>8</v>
@@ -17134,10 +17188,10 @@
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>6</v>
@@ -17157,10 +17211,10 @@
         <v>53</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>6</v>
@@ -17177,10 +17231,10 @@
         <v>155</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>254</v>
@@ -17223,16 +17277,16 @@
         <v>122</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>8</v>
@@ -17249,7 +17303,7 @@
         <v>26</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>6</v>
@@ -17278,7 +17332,7 @@
         <v>88</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>8</v>
@@ -17292,10 +17346,10 @@
         <v>236</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>49</v>
@@ -17315,10 +17369,10 @@
         <v>236</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>49</v>
@@ -17353,7 +17407,7 @@
         <v>8</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="12.75">
@@ -17387,13 +17441,13 @@
         <v>120</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>8</v>
@@ -17410,13 +17464,13 @@
         <v>120</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>8</v>
@@ -17436,7 +17490,7 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>60</v>
@@ -17476,7 +17530,7 @@
         <v>236</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>75</v>
@@ -17485,7 +17539,7 @@
         <v>76</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>8</v>
@@ -17499,7 +17553,7 @@
         <v>236</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>75</v>
@@ -17508,7 +17562,7 @@
         <v>76</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>8</v>
@@ -17571,13 +17625,13 @@
         <v>4</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>8</v>
@@ -17597,10 +17651,10 @@
         <v>175</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>8</v>
@@ -17643,10 +17697,10 @@
         <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>309</v>
@@ -17666,10 +17720,10 @@
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>309</v>
@@ -17689,10 +17743,10 @@
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>309</v>
@@ -17712,10 +17766,10 @@
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>309</v>
@@ -17732,13 +17786,13 @@
         <v>53</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>8</v>
@@ -17755,13 +17809,13 @@
         <v>53</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>8</v>
@@ -17778,13 +17832,13 @@
         <v>53</v>
       </c>
       <c r="C119" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>8</v>
@@ -17801,13 +17855,13 @@
         <v>53</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>8</v>
@@ -17821,7 +17875,7 @@
         <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>272</v>
@@ -17830,7 +17884,7 @@
         <v>274</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>8</v>
@@ -17844,7 +17898,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>272</v>
@@ -17853,7 +17907,7 @@
         <v>274</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>8</v>
@@ -17870,13 +17924,13 @@
         <v>97</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>8</v>
@@ -17893,13 +17947,13 @@
         <v>20</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>504</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>8</v>
@@ -17916,13 +17970,13 @@
         <v>20</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>8</v>
@@ -17939,13 +17993,13 @@
         <v>97</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>8</v>
@@ -17959,16 +18013,16 @@
         <v>122</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>8</v>
@@ -18008,10 +18062,10 @@
         <v>26</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>6</v>
@@ -18031,7 +18085,7 @@
         <v>26</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>88</v>
@@ -18054,10 +18108,10 @@
         <v>92</v>
       </c>
       <c r="C131" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>6</v>
@@ -18097,13 +18151,13 @@
         <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>103</v>
@@ -18120,16 +18174,16 @@
         <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>8</v>
@@ -18140,7 +18194,7 @@
     </row>
     <row r="135" spans="1:7" ht="12.75">
       <c r="A135" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>20</v>
@@ -18163,7 +18217,7 @@
     </row>
     <row r="136" spans="1:7" ht="12.75">
       <c r="A136" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>53</v>
@@ -18186,7 +18240,7 @@
     </row>
     <row r="137" spans="1:7" ht="12.75">
       <c r="A137" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>2</v>
@@ -18198,7 +18252,7 @@
         <v>40</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>8</v>
@@ -18209,10 +18263,10 @@
     </row>
     <row r="138" spans="1:7" ht="12.75">
       <c r="A138" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>6</v>
@@ -18221,7 +18275,7 @@
         <v>254</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>8</v>
@@ -18232,16 +18286,16 @@
     </row>
     <row r="139" spans="1:7" ht="12.75">
       <c r="A139" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>47</v>
@@ -18255,7 +18309,7 @@
     </row>
     <row r="140" spans="1:7" ht="12.75">
       <c r="A140" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>320</v>
@@ -18264,7 +18318,7 @@
         <v>83</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>6</v>
@@ -18278,10 +18332,10 @@
     </row>
     <row r="141" spans="1:7" ht="12.75">
       <c r="A141" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>6</v>
@@ -18310,10 +18364,10 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>8</v>
@@ -18376,13 +18430,13 @@
         <v>53</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>8</v>
@@ -18396,16 +18450,16 @@
         <v>356</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C146" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>8</v>
@@ -18419,16 +18473,16 @@
         <v>356</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C147" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>8</v>
@@ -18442,22 +18496,22 @@
         <v>356</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="D148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="12.75">
@@ -18488,22 +18542,22 @@
         <v>356</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>606</v>
-      </c>
       <c r="E150" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="12.75">
@@ -18517,7 +18571,7 @@
         <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>30</v>
@@ -18534,7 +18588,7 @@
         <v>358</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>75</v>
@@ -18543,7 +18597,7 @@
         <v>184</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>8</v>
@@ -18557,16 +18611,16 @@
         <v>358</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>8</v>
@@ -18580,16 +18634,16 @@
         <v>358</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>8</v>
@@ -18600,19 +18654,19 @@
     </row>
     <row r="155" spans="1:7" ht="12.75">
       <c r="A155" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>8</v>
@@ -18623,7 +18677,7 @@
     </row>
     <row r="156" spans="1:7" ht="12.75">
       <c r="A156" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>26</v>
@@ -18635,7 +18689,7 @@
         <v>6</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>8</v>
@@ -18646,7 +18700,7 @@
     </row>
     <row r="157" spans="1:7" ht="12.75">
       <c r="A157" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>92</v>
@@ -18655,7 +18709,7 @@
         <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>30</v>
@@ -18669,7 +18723,7 @@
     </row>
     <row r="158" spans="1:7" ht="12.75">
       <c r="A158" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>97</v>
@@ -18692,19 +18746,19 @@
     </row>
     <row r="159" spans="1:7" ht="12.75">
       <c r="A159" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>628</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>8</v>
@@ -18715,7 +18769,7 @@
     </row>
     <row r="160" spans="1:7" ht="12.75">
       <c r="A160" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>53</v>
@@ -18724,10 +18778,10 @@
         <v>278</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>8</v>
@@ -18738,19 +18792,19 @@
     </row>
     <row r="161" spans="1:7" ht="12.75">
       <c r="A161" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>8</v>
@@ -18761,7 +18815,7 @@
     </row>
     <row r="162" spans="1:7" ht="12.75">
       <c r="A162" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>20</v>
@@ -18770,7 +18824,7 @@
         <v>22</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>241</v>
@@ -18784,19 +18838,19 @@
     </row>
     <row r="163" spans="1:7" ht="12.75">
       <c r="A163" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>8</v>
@@ -18807,10 +18861,10 @@
     </row>
     <row r="164" spans="1:7" ht="12.75">
       <c r="A164" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>6</v>
@@ -18830,7 +18884,7 @@
     </row>
     <row r="165" spans="1:7" ht="12.75">
       <c r="A165" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>53</v>
@@ -18853,7 +18907,7 @@
     </row>
     <row r="166" spans="1:7" ht="12.75">
       <c r="A166" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>53</v>
@@ -18862,10 +18916,10 @@
         <v>22</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>8</v>
@@ -18876,7 +18930,7 @@
     </row>
     <row r="167" spans="1:7" ht="12.75">
       <c r="A167" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>92</v>
@@ -18885,10 +18939,10 @@
         <v>22</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>650</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>8</v>
@@ -18954,7 +19008,7 @@
         <v>22</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>30</v>
@@ -18977,7 +19031,7 @@
         <v>22</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>30</v>
@@ -18994,16 +19048,16 @@
         <v>356</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>8</v>
@@ -19017,13 +19071,13 @@
         <v>356</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C173" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>35</v>
@@ -19040,16 +19094,16 @@
         <v>356</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C174" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>661</v>
-      </c>
       <c r="E174" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>8</v>
@@ -19066,13 +19120,13 @@
         <v>58</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>8</v>
@@ -19135,13 +19189,13 @@
         <v>53</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>8</v>
@@ -19158,13 +19212,13 @@
         <v>53</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>8</v>
@@ -19224,16 +19278,16 @@
         <v>356</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>8</v>
@@ -19247,16 +19301,16 @@
         <v>356</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>8</v>
@@ -19299,7 +19353,7 @@
         <v>22</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>6</v>
@@ -19322,7 +19376,7 @@
         <v>22</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>6</v>
@@ -19342,13 +19396,13 @@
         <v>53</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>8</v>
@@ -19365,13 +19419,13 @@
         <v>53</v>
       </c>
       <c r="C188" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="E188" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>8</v>
@@ -19394,7 +19448,7 @@
         <v>44</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>8</v>
@@ -19411,13 +19465,13 @@
         <v>53</v>
       </c>
       <c r="C190" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="E190" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>8</v>
@@ -19434,10 +19488,10 @@
         <v>53</v>
       </c>
       <c r="C191" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>6</v>
@@ -19457,10 +19511,10 @@
         <v>2</v>
       </c>
       <c r="C192" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>713</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>6</v>
@@ -19483,7 +19537,7 @@
         <v>22</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>6</v>
@@ -19523,16 +19577,16 @@
         <v>372</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>8</v>
@@ -19546,16 +19600,16 @@
         <v>372</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C196" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>723</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>8</v>
@@ -19566,7 +19620,7 @@
     </row>
     <row r="197" spans="1:7" ht="12.75">
       <c r="A197" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>20</v>
@@ -19589,7 +19643,7 @@
     </row>
     <row r="198" spans="1:7" ht="12.75">
       <c r="A198" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>26</v>
@@ -19612,19 +19666,19 @@
     </row>
     <row r="199" spans="1:7" ht="12.75">
       <c r="A199" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>8</v>
@@ -19635,10 +19689,10 @@
     </row>
     <row r="200" spans="1:7" ht="12.75">
       <c r="A200" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>6</v>
@@ -19664,13 +19718,13 @@
         <v>2</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>8</v>
@@ -19684,10 +19738,10 @@
         <v>366</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>163</v>
@@ -19707,7 +19761,7 @@
         <v>366</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>6</v>
@@ -19716,7 +19770,7 @@
         <v>59</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>8</v>
@@ -19730,7 +19784,7 @@
         <v>366</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>6</v>
@@ -19754,22 +19808,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A27 A29:A95 A97:A112 A117:A205">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="4">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="3">
       <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="2">
       <formula>LEN(TRIM(A96))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A116">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="1">
       <formula>LEN(TRIM(A113))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19782,10 +19836,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -19800,502 +19854,502 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B1" t="s">
         <v>855</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>856</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>857</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>858</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>859</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>860</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="12.75">
+      <c r="A2" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="12.75">
+      <c r="A3" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="14" customFormat="1" ht="12.75">
+      <c r="A4" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>958</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="12.75">
+      <c r="A5" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="12.75">
+      <c r="A6" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="C6" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="14" customFormat="1" ht="12.75">
+      <c r="A7" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>950</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="12.75">
+      <c r="A8" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>951</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>952</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="12.75">
+      <c r="A9" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>946</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="12.75">
+      <c r="A10" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>947</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="12.75">
+      <c r="A11" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="12.75">
+      <c r="A12" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75">
+      <c r="A13" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75">
+      <c r="A14" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="D14" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="15" spans="1:7" ht="12.75">
+      <c r="A15" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B15" t="s">
+        <v>861</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="B4" t="s">
-        <v>862</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75">
+      <c r="A16" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B16" t="s">
+        <v>861</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75">
+      <c r="A17" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="B5" t="s">
-        <v>862</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75">
+      <c r="A18" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75">
+      <c r="A19" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E8" s="2" t="s">
+    <row r="20" spans="1:7" ht="12.75">
+      <c r="A20" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>309</v>
+        <v>8</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="12.75">
       <c r="A21" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75">
+      <c r="A22" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>862</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>680</v>
+        <v>376</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>375</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>8</v>
@@ -20304,21 +20358,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="12.75">
       <c r="A23" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>915</v>
+        <v>376</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>493</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>8</v>
@@ -20327,340 +20381,340 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="12.75">
       <c r="A24" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75">
+      <c r="A25" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.75">
+      <c r="A26" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75">
+      <c r="A27" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12.75">
+      <c r="A28" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="12.75">
+      <c r="A29" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75">
+      <c r="A30" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.75">
+      <c r="A31" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.75">
+      <c r="A32" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75">
+      <c r="A33" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75">
+      <c r="A34" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12.75">
+      <c r="A35" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="F35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="E25" s="2" t="s">
+    <row r="36" spans="1:7" ht="12.75">
+      <c r="A36" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="F36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>915</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>862</v>
+        <v>97</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>36</v>
+        <v>729</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>35</v>
+        <v>916</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>42</v>
+        <v>917</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>915</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>900</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>547</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>45</v>
@@ -20669,38 +20723,38 @@
         <v>8</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>42</v>
+        <v>917</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>915</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>6</v>
+        <v>918</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>915</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>22</v>
@@ -20709,122 +20763,122 @@
         <v>6</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>60</v>
+        <v>919</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>904</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>861</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>920</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>60</v>
+        <v>924</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>60</v>
+        <v>921</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>862</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>73</v>
+        <v>922</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>862</v>
+        <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>8</v>
@@ -20835,125 +20889,125 @@
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="12.75">
-      <c r="A47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>560</v>
+        <v>30</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>309</v>
+        <v>8</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="12.75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>33</v>
+        <v>861</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>564</v>
+        <v>38</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>565</v>
+        <v>35</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>309</v>
+        <v>8</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>2</v>
+        <v>861</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>22</v>
@@ -20968,12 +21022,12 @@
         <v>8</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>2</v>
@@ -20982,33 +21036,33 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>8</v>
@@ -21019,74 +21073,337 @@
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="12.75">
+      <c r="A58" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="12.75">
+      <c r="A59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="5" t="s">
+      <c r="F66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A5 A7:A18 A22:A46 A49:A55">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="5">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+  <conditionalFormatting sqref="A13:A16 A18:A29 A33:A57 A60:A66">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="7">
+      <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="4">
-      <formula>LEN(TRIM(A6))&gt;0</formula>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="6">
+      <formula>LEN(TRIM(A17))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="3">
-      <formula>LEN(TRIM(A19))&gt;0</formula>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="5">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A21">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="2">
-      <formula>LEN(TRIM(A20))&gt;0</formula>
+  <conditionalFormatting sqref="A31:A32">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="4">
+      <formula>LEN(TRIM(A31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:A48">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="1">
-      <formula>LEN(TRIM(A47))&gt;0</formula>
+  <conditionalFormatting sqref="A58:A59">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="3">
+      <formula>LEN(TRIM(A58))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A12">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="2">
+      <formula>LEN(TRIM(A5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21117,7 +21434,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21149,7 +21466,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21181,7 +21498,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21213,7 +21530,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21245,7 +21562,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21277,7 +21594,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
